--- a/Multiknapsack/results/fixed_recourse/multicut/M20_N100_T0_a75_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/multicut/M20_N100_T0_a75_ccg.xlsx
@@ -471,10 +471,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-601.5022445304209</v>
+        <v>-152.6915513587452</v>
       </c>
       <c r="C2">
-        <v>8.776050684</v>
+        <v>9.981462678</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -483,16 +483,16 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H2">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -500,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-608.5309886553532</v>
+        <v>-149.80697334593236</v>
       </c>
       <c r="C3">
-        <v>0.084491728</v>
+        <v>1.670559779</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -512,16 +512,16 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H3">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,10 +529,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-620.2767067883783</v>
+        <v>-151.10442773297382</v>
       </c>
       <c r="C4">
-        <v>0.076600315</v>
+        <v>2.125055329</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -541,16 +541,16 @@
         <v>14</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H4">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -558,10 +558,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-623.0162878029556</v>
+        <v>-150.7026611363612</v>
       </c>
       <c r="C5">
-        <v>0.083469196</v>
+        <v>1.859133424</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -570,16 +570,16 @@
         <v>14</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H5">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -587,10 +587,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-600.2778595374714</v>
+        <v>-150.52128244649396</v>
       </c>
       <c r="C6">
-        <v>0.064318414</v>
+        <v>2.881476532</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>14</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H6">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -616,10 +616,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-603.1508915911172</v>
+        <v>-149.30562494657448</v>
       </c>
       <c r="C7">
-        <v>0.094374764</v>
+        <v>2.936565255</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -628,16 +628,16 @@
         <v>14</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H7">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -645,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-593.4398910548933</v>
+        <v>-148.66151974917545</v>
       </c>
       <c r="C8">
-        <v>0.068628</v>
+        <v>1.676146803</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -657,16 +657,16 @@
         <v>14</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H8">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -674,10 +674,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-607.7350938167094</v>
+        <v>-150.18259972871869</v>
       </c>
       <c r="C9">
-        <v>0.059159942</v>
+        <v>1.963609485</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -686,16 +686,16 @@
         <v>14</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H9">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I9">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -703,10 +703,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-613.066009577107</v>
+        <v>-151.08461007105797</v>
       </c>
       <c r="C10">
-        <v>0.059599197</v>
+        <v>2.07834734</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -715,16 +715,16 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H10">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -732,10 +732,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-590.2012633227611</v>
+        <v>-146.922210513398</v>
       </c>
       <c r="C11">
-        <v>0.061559016</v>
+        <v>1.777984944</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -744,16 +744,16 @@
         <v>14</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H11">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -797,10 +797,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.0076820988895263675</v>
+        <v>0.028167553452148438</v>
       </c>
       <c r="E2">
-        <v>12.14879</v>
+        <v>228.34639</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -808,13 +808,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-613.066009577107</v>
+        <v>-151.08461007105797</v>
       </c>
       <c r="C3">
-        <v>3.708795984302528e-14</v>
+        <v>0.05281059687761344</v>
       </c>
       <c r="D3">
-        <v>0.02455227018005371</v>
+        <v>1.8342621356691895</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -861,10 +861,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.007657331143066407</v>
+        <v>0.03731891070141601</v>
       </c>
       <c r="E2">
-        <v>12.01733</v>
+        <v>218.51635</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -872,13 +872,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-590.2012633227611</v>
+        <v>-146.922210513398</v>
       </c>
       <c r="C3">
-        <v>1.9262384679008267e-14</v>
+        <v>0.008927839974904692</v>
       </c>
       <c r="D3">
-        <v>0.02636061920300293</v>
+        <v>1.5419986081529542</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -925,10 +925,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.9807776157408448</v>
+        <v>0.885273730232666</v>
       </c>
       <c r="E2">
-        <v>11.64458</v>
+        <v>220.70464</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -936,13 +936,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-601.5022445304209</v>
+        <v>-152.6915513587452</v>
       </c>
       <c r="C3">
-        <v>3.780096874296782e-14</v>
+        <v>0.09094437275100899</v>
       </c>
       <c r="D3">
-        <v>0.04025115527587891</v>
+        <v>1.3182471356051026</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -989,10 +989,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.020839397446899412</v>
+        <v>0.019672506603149415</v>
       </c>
       <c r="E2">
-        <v>12.57283</v>
+        <v>222.6832</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-608.5309886553532</v>
+        <v>-149.80697334593236</v>
       </c>
       <c r="C3">
-        <v>9.341088608552757e-14</v>
+        <v>0.04863840334435918</v>
       </c>
       <c r="D3">
-        <v>0.0357332273293457</v>
+        <v>1.4584250013929443</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1053,10 +1053,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.010479376233642578</v>
+        <v>0.011684348206420898</v>
       </c>
       <c r="E2">
-        <v>13.1945</v>
+        <v>222.06669</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1064,13 +1064,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-620.2767067883783</v>
+        <v>-151.10442773297382</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.029716775909179687</v>
+        <v>1.9546205120506592</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1117,10 +1117,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.011761591724365235</v>
+        <v>0.03785099905883789</v>
       </c>
       <c r="E2">
-        <v>13.37091</v>
+        <v>219.63896</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1128,13 +1128,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-623.0162878029556</v>
+        <v>-150.7026611363612</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.0790679019001801</v>
       </c>
       <c r="D3">
-        <v>0.034670673864624024</v>
+        <v>1.6570699790717773</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1181,10 +1181,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.008566132539794921</v>
+        <v>0.0369043198894043</v>
       </c>
       <c r="E2">
-        <v>11.19854</v>
+        <v>226.07773</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1192,13 +1192,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-600.2778595374714</v>
+        <v>-150.52128244649396</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.024512048769287108</v>
+        <v>2.632920491957031</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1245,10 +1245,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.008955079978027344</v>
+        <v>0.046772064153686524</v>
       </c>
       <c r="E2">
-        <v>11.66932</v>
+        <v>236.63439</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-603.1508915911172</v>
+        <v>-149.30562494657448</v>
       </c>
       <c r="C3">
-        <v>1.884882196255904e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.03922657169018555</v>
+        <v>2.5871455994648436</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1309,10 +1309,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.010097999786743164</v>
+        <v>0.03861509391125488</v>
       </c>
       <c r="E2">
-        <v>12.69796</v>
+        <v>217.43514</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1320,13 +1320,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-593.4398910548933</v>
+        <v>-148.66151974917545</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.026106937323974608</v>
+        <v>1.416365807449829</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1373,10 +1373,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.008450873290527345</v>
+        <v>0.013593793322265625</v>
       </c>
       <c r="E2">
-        <v>11.03062</v>
+        <v>213.70945</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1384,13 +1384,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-607.7350938167094</v>
+        <v>-150.18259972871869</v>
       </c>
       <c r="C3">
-        <v>1.870664354885598e-14</v>
+        <v>0.017091668477038063</v>
       </c>
       <c r="D3">
-        <v>0.021948470298583985</v>
+        <v>1.7661272293115235</v>
       </c>
       <c r="E3">
         <v>0.0</v>
